--- a/model_exports/labels/2.0_True_False_9_2.xlsx
+++ b/model_exports/labels/2.0_True_False_9_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C732"/>
+  <dimension ref="A1:C733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-729342722264420352</t>
+          <t>t-933792655041064962</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-500035862709948417</t>
+          <t>t-494463913853874176</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-500685725482770433</t>
+          <t>t-494829977268146176</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-501752547083059200</t>
+          <t>t-495010606047821824</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,20 +505,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-501732075599593472</t>
+          <t>t-495017350790668289</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-629748063494537216</t>
+          <t>t-495805012929708033</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,11 +531,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-629757802915848193</t>
+          <t>t-497139824780787712</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -544,20 +544,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-887418286014570496</t>
+          <t>t-497141925451792384</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-712108446167011328</t>
+          <t>t-497161697371893760</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,20 +570,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-738281921046675456</t>
+          <t>t-497242468627124224</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-738404067647455232</t>
+          <t>t-497474058641215489</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-738429326224302080</t>
+          <t>t-497485019451883520</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,20 +609,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-738429350467543044</t>
+          <t>t-501732075599593472</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-765195503457882112</t>
+          <t>t-517204809452380161</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,11 +635,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-765297031346655232</t>
+          <t>t-627039115188383744</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -648,24 +648,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-773705145389645824</t>
+          <t>t-629748063494537216</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-784233737512890376</t>
+          <t>t-629757802915848193</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-784234780590080001</t>
+          <t>t-688456240490508289</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,24 +687,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-815615714082095105</t>
+          <t>t-690710236638777344</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-816012131535613952</t>
+          <t>t-690724653006921728</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-816043428630839296</t>
+          <t>t-759240736864870400</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,33 +726,33 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-816046695377158145</t>
+          <t>t-833214575512150018</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-816056629867188225</t>
+          <t>t-585505175835648000</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-816367923770118149</t>
+          <t>t-588022316359151617</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-816380623434592257</t>
+          <t>t-588515231380348928</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,20 +778,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-865644367372967936</t>
+          <t>t-588525414441553920</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-866152720700514304</t>
+          <t>t-588659923807907840</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,24 +804,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-889549980888969217</t>
+          <t>t-601392774370340865</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-889892042435854336</t>
+          <t>t-638852256234913792</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -830,20 +830,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-890080777769283584</t>
+          <t>t-648290405872627712</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-906729471721570304</t>
+          <t>t-658615758751211520</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,7 +856,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-909776370410168323</t>
+          <t>t-658616745809330176</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,11 +869,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-959172176346836993</t>
+          <t>t-658617481574092800</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -882,11 +882,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-968259732858376192</t>
+          <t>t-686267623462408192</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -895,24 +895,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-1000042512319483904</t>
+          <t>t-719525216439910400</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-1000115343019343872</t>
+          <t>t-719704738913083392</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-1000762573766184961</t>
+          <t>t-738281921046675456</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-1001659726067830785</t>
+          <t>t-738404067647455232</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,7 +947,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-1003697920015851520</t>
+          <t>t-738429326224302080</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,59 +960,59 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-1018804138195513344</t>
+          <t>t-738429350467543044</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-1018807229267496962</t>
+          <t>t-773705145389645824</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-1018819644377923585</t>
+          <t>t-815615714082095105</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-1018962868379750402</t>
+          <t>t-816012131535613952</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-1019003195874512897</t>
+          <t>t-816043428630839296</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,33 +1025,33 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-1019014466770333697</t>
+          <t>t-816046695377158145</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-1019698120098222080</t>
+          <t>t-816056629867188225</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-1030587514820669441</t>
+          <t>t-816367923770118149</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,33 +1064,33 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-1030625730407874563</t>
+          <t>t-816380623434592257</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-1031145618503360513</t>
+          <t>t-848784048755531776</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-1031309689848508416</t>
+          <t>t-848852185962037248</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-1045002319061012482</t>
+          <t>t-848864915762929664</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,63 +1116,63 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-1045014122092482560</t>
+          <t>t-848891572318072832</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-1045027654121000962</t>
+          <t>t-849117747430797312</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1045031106968465408</t>
+          <t>t-849222321772658688</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-1045065376575475712</t>
+          <t>t-849255695249625088</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-827438952974004224</t>
+          <t>t-849369868306665472</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1181,33 +1181,33 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-985698935074369536</t>
+          <t>t-849634891255951364</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1024774127687749633</t>
+          <t>t-849637507117568000</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-641417749898522624</t>
+          <t>t-849667565186146304</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,85 +1220,85 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-687924478219685888</t>
+          <t>t-849686849312501763</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-687934498701455360</t>
+          <t>t-849743357312024576</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-746432967740882945</t>
+          <t>t-850026468906340353</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-754462771173924865</t>
+          <t>t-850319148420694016</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-770981711182237696</t>
+          <t>t-850426637086842884</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-816207402437636096</t>
+          <t>t-850856929295552513</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-841634951439220736</t>
+          <t>t-875748360933847041</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,11 +1311,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-852681395487035392</t>
+          <t>t-887086137789091841</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1324,33 +1324,33 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-976076558824767489</t>
+          <t>t-893450286144131072</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-610241505777856512</t>
+          <t>t-906729471721570304</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-610629417715412992</t>
+          <t>t-937797554313551873</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,20 +1363,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-753345702428827652</t>
+          <t>t-937878737382772737</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-753345808620105728</t>
+          <t>t-938887720075702272</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-753350269518409728</t>
+          <t>t-945777508007464961</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,20 +1402,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-757940960609173505</t>
+          <t>t-956711426009202688</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-788842589554343938</t>
+          <t>t-968259732858376192</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,20 +1428,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-878279115006136321</t>
+          <t>t-1000042512319483904</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-885277243991314432</t>
+          <t>t-1000115343019343872</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,7 +1454,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-885292685086646272</t>
+          <t>t-1000762573766184961</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,20 +1467,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-981152225723604993</t>
+          <t>t-1001659726067830785</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-593974566453555201</t>
+          <t>t-1024388985282383872</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,33 +1493,33 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-618057796345593856</t>
+          <t>t-1030587514820669441</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-756129418616139777</t>
+          <t>t-1030625730407874563</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-767098705790906368</t>
+          <t>t-1031145618503360513</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,24 +1532,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-908760840886767616</t>
+          <t>t-1031309689848508416</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-1007699633349582849</t>
+          <t>t-1045002319061012482</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-1007719195323269122</t>
+          <t>t-1045014122092482560</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,33 +1571,33 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-1008223489369796609</t>
+          <t>t-1045027654121000962</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-1008226683005087744</t>
+          <t>t-1045031106968465408</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-1008430016873394176</t>
+          <t>t-1045065376575475712</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-1008458331160182784</t>
+          <t>t-812540411746975744</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,11 +1623,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-1008771230261039104</t>
+          <t>t-694987975168495617</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1636,11 +1636,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-1009061662731767808</t>
+          <t>t-819315426853273600</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-1009095412505022464</t>
+          <t>t-827438952974004224</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-1009284771766140929</t>
+          <t>t-925753092301295616</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,59 +1675,59 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-1009553393331986433</t>
+          <t>t-934407049034846208</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-511616761545121792</t>
+          <t>t-573406774969044992</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-548325093256884224</t>
+          <t>t-573566918876995584</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-512768543989825541</t>
+          <t>t-574621995633111040</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-611854657594486784</t>
+          <t>t-730338940872445952</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,11 +1740,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-768897641946181632</t>
+          <t>t-731342823132274688</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-768901368044134400</t>
+          <t>t-765818303898058752</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,63 +1766,63 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-585851418843615232</t>
+          <t>t-903960318652669952</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-623339394989166593</t>
+          <t>t-903973451970392064</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-626070342885249024</t>
+          <t>t-958555465675362304</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-836993229967015937</t>
+          <t>t-612750086443917313</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-837317730147713024</t>
+          <t>t-770776256669372416</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-966707160049766400</t>
+          <t>t-858084101320056832</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,50 +1844,50 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-967596306297483265</t>
+          <t>t-858490544007327747</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-967763105525764097</t>
+          <t>t-885277243991314432</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-967806729865060352</t>
+          <t>t-885292685086646272</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-967827685333454849</t>
+          <t>t-1006061673487138817</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-968065709459750912</t>
+          <t>t-611838090278121474</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-968790557077262336</t>
+          <t>t-612267884463673344</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,7 +1922,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-697866091025080320</t>
+          <t>t-612280320520425472</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-533211918698553344</t>
+          <t>t-717023541078728704</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-533272996883210240</t>
+          <t>t-745031440031694848</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,33 +1961,33 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-533345881412878336</t>
+          <t>t-548325093256884224</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-676490487717625856</t>
+          <t>t-768897641946181632</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-676517665188507650</t>
+          <t>t-768901368044134400</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,59 +2000,59 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-897129980584439812</t>
+          <t>t-585851418843615232</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-986144781721104384</t>
+          <t>t-641288611472654336</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-536361968840769536</t>
+          <t>t-836993229967015937</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-743488475874353153</t>
+          <t>t-837317730147713024</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-743501818358042625</t>
+          <t>t-981162868749033472</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,24 +2065,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-783792055160082432</t>
+          <t>t-981305166392692736</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-919827029243187200</t>
+          <t>t-981306180961275904</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2091,24 +2091,24 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-919919408797151233</t>
+          <t>t-1000477141224558594</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-919933275422027776</t>
+          <t>t-1031705611933831168</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -2117,7 +2117,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-919961378433224704</t>
+          <t>t-672497431242756096</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,11 +2130,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-920296060211400704</t>
+          <t>t-843394427347320833</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-953935668199215104</t>
+          <t>t-540815358715002880</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,24 +2156,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-953991296196149248</t>
+          <t>t-638954151821594624</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-543357722591514624</t>
+          <t>t-639060084857929728</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2182,33 +2182,33 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-1020278662699134976</t>
+          <t>t-675047436134543360</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-568623295811194880</t>
+          <t>t-956627624150880257</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-622526710358114306</t>
+          <t>t-1042485319055155201</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,20 +2221,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-657221044642684928</t>
+          <t>t-682141165802631168</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-752638920505131008</t>
+          <t>t-552038248218767360</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,7 +2247,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-873219337427062785</t>
+          <t>t-552266751304798209</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2260,7 +2260,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-602966767602831362</t>
+          <t>t-671527403521462276</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,46 +2273,46 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-602969826642898945</t>
+          <t>t-843361396750409728</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-603005702697713664</t>
+          <t>t-611996097129619456</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-611182304984109057</t>
+          <t>t-622526710358114306</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-578289267857891328</t>
+          <t>t-625832003070509056</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,7 +2325,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-1060963338337902593</t>
+          <t>t-626848405877301248</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,46 +2338,46 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-907490044335636480</t>
+          <t>t-692803310668087296</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-698546841881853953</t>
+          <t>t-1062308914354642944</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-745905684248694789</t>
+          <t>t-707957967094685696</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-745992462448140288</t>
+          <t>t-590950091256631296</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,33 +2390,33 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-746083614291562497</t>
+          <t>t-594613009575579649</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-782264769742934016</t>
+          <t>t-696837842702446592</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-878162982953402368</t>
+          <t>t-607855197835149312</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,24 +2429,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-886294080040423425</t>
+          <t>t-618586257753374720</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-621875663901863937</t>
+          <t>t-708373253648207873</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2455,37 +2455,37 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-1036699556560470016</t>
+          <t>t-759898000407662594</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-624561158788247552</t>
+          <t>t-764015991344869376</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-860938986382135296</t>
+          <t>t-849724022598139904</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2494,11 +2494,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-861076485599354880</t>
+          <t>t-948592886060380161</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -2507,11 +2507,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-1003953189820010496</t>
+          <t>t-972059634101047296</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2520,24 +2520,24 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-694715871097278464</t>
+          <t>t-973190028435353600</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-890798435175063552</t>
+          <t>t-828748393916809216</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2546,72 +2546,72 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-1006535367464509440</t>
+          <t>t-829760036348035072</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-1006670876169949190</t>
+          <t>t-834484332148297728</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-730685047137800192</t>
+          <t>t-700818903744778240</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-730687533638619136</t>
+          <t>t-784477844240011265</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-734825704412446721</t>
+          <t>t-860938986382135296</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-734826990281187328</t>
+          <t>t-861076485599354880</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,11 +2624,11 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-748127558550560768</t>
+          <t>t-962803499766513664</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2637,63 +2637,63 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-782856010625003521</t>
+          <t>t-994221853211267073</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-864813217943441412</t>
+          <t>t-753685864471863300</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-1029734360872771584</t>
+          <t>t-890798435175063552</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-992428512744222721</t>
+          <t>t-1022049211108483072</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-1039228208804233216</t>
+          <t>t-1022100736476360704</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -2702,11 +2702,11 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-1042035586717110280</t>
+          <t>t-883080365442838528</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2715,20 +2715,20 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-1044637096198041600</t>
+          <t>t-883215183442739200</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-898040952396193792</t>
+          <t>t-730685047137800192</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,20 +2741,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-898113774225301505</t>
+          <t>t-730687533638619136</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-1021604631217164289</t>
+          <t>t-1005457960703754240</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,46 +2767,46 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-1021652512343031808</t>
+          <t>t-864813217943441412</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-1021683870188503041</t>
+          <t>t-888405582352437248</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-1021786238024527873</t>
+          <t>t-992428512744222721</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-507905858265960448</t>
+          <t>t-910451192064614401</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-657266493659435008</t>
+          <t>t-507905858265960448</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,20 +2832,20 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-692385146725646340</t>
+          <t>t-657266493659435008</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-536338799517634560</t>
+          <t>t-640924573647503360</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,46 +2858,46 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-604384366886834177</t>
+          <t>t-641489320088436736</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-604797500965265408</t>
+          <t>t-660036667412082688</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-605112787141033985</t>
+          <t>t-660641499701489665</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-605369768720396288</t>
+          <t>t-662196453281038336</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,11 +2910,11 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-635524506925314049</t>
+          <t>t-708426270242164736</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -2923,7 +2923,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-662196453281038336</t>
+          <t>t-735525963610660865</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,24 +2936,24 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-708426270242164736</t>
+          <t>t-736203598091190272</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-833578679338942464</t>
+          <t>t-752596726066843648</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -2962,11 +2962,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-905607663798636547</t>
+          <t>t-753413745230094338</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -2975,20 +2975,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-906292765633515520</t>
+          <t>t-815857432882769920</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-906696780133388288</t>
+          <t>t-816077181575106560</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,24 +3001,24 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-925358435398488064</t>
+          <t>t-821459572263100416</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-952979792495816704</t>
+          <t>t-894616667350872064</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -3027,20 +3027,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-965598107676430336</t>
+          <t>t-895668017060651009</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1047282657053298690</t>
+          <t>t-911712205657317376</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,59 +3053,59 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1052665207342944261</t>
+          <t>t-913139045009633280</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1053196089317306368</t>
+          <t>t-913178067195088902</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1053286918086103042</t>
+          <t>t-913438297258708992</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1054369632671404032</t>
+          <t>t-965598107676430336</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-593171698846830592</t>
+          <t>t-998567520113225733</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,20 +3118,20 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-727306437798576130</t>
+          <t>t-1014570924681687042</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-750893641632063488</t>
+          <t>t-1036976718718881793</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-760920272639852545</t>
+          <t>t-611619605899939841</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,11 +3157,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-760967260039106560</t>
+          <t>t-760920272639852545</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -3170,7 +3170,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-760972532421984261</t>
+          <t>t-760967260039106560</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-760978989359833088</t>
+          <t>t-760972532421984261</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,7 +3196,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-761017815637696513</t>
+          <t>t-760978989359833088</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,7 +3209,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-761048712214818816</t>
+          <t>t-761017815637696513</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,7 +3222,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-761049587066867712</t>
+          <t>t-761048712214818816</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,7 +3235,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-761050328493985794</t>
+          <t>t-761049587066867712</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,7 +3248,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-761057847262142465</t>
+          <t>t-761050328493985794</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,11 +3261,11 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-891394338445553666</t>
+          <t>t-761057847262142465</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-891401235391066112</t>
+          <t>t-886785151694512128</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-891671460804259840</t>
+          <t>t-886797636501520384</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,7 +3300,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-891695041609162754</t>
+          <t>t-886952472035549185</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,7 +3313,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-892069950281711617</t>
+          <t>t-887152237432061952</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,24 +3326,24 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-892901315642146816</t>
+          <t>t-887308832208293888</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-1006674770983817217</t>
+          <t>t-888147986982649856</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-619624637685755904</t>
+          <t>t-1029525697382047746</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,50 +3365,50 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-683790340701073408</t>
+          <t>t-1029541696839798791</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-1042440160749780992</t>
+          <t>t-1029769212384948225</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-577773253898477568</t>
+          <t>t-534896855906537472</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-577808831918579712</t>
+          <t>t-761355220198756352</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-609714781507993601</t>
+          <t>t-761372714925891586</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,7 +3430,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-609790992309469184</t>
+          <t>t-1050781684117987329</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-609807635727151104</t>
+          <t>t-609714781507993601</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,33 +3456,33 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-610006959677382657</t>
+          <t>t-609790992309469184</t>
         </is>
       </c>
       <c r="B233" t="n">
         <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-610466198136954881</t>
+          <t>t-609807635727151104</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-630004911024046080</t>
+          <t>t-610006959677382657</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,76 +3495,76 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-630051857654751232</t>
+          <t>t-610466198136954881</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-630833400857919488</t>
+          <t>t-616575922674769920</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-653152901892739072</t>
+          <t>t-616694572853256192</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-653993411570192384</t>
+          <t>t-653152901892739072</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-707575261483687937</t>
+          <t>t-653993411570192384</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-716748651113091072</t>
+          <t>t-681483416165048320</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3573,20 +3573,20 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-716774298296389632</t>
+          <t>t-726061174727532544</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-739781293882347520</t>
+          <t>t-745683270160027648</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3612,7 +3612,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-757849369496301569</t>
+          <t>t-903533073358352385</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,7 +3625,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-758572772490637312</t>
+          <t>t-903589529143189504</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,24 +3638,24 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-783921439044841474</t>
+          <t>t-913153226706472965</t>
         </is>
       </c>
       <c r="B247" t="n">
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-784017385615265792</t>
+          <t>t-936972059766415360</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -3664,20 +3664,20 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-784336997477261312</t>
+          <t>t-972048308909826048</t>
         </is>
       </c>
       <c r="B249" t="n">
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-784835805999198208</t>
+          <t>t-1049984041888505856</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,33 +3690,33 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-799654742746165248</t>
+          <t>t-1051063984038776837</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-841637693608071170</t>
+          <t>t-1052331593933688832</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-849475288652238849</t>
+          <t>t-1052814538419003392</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,11 +3729,11 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-957285309796044800</t>
+          <t>t-1052930779947393024</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3742,11 +3742,11 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-957305309328039936</t>
+          <t>t-1052972300667146241</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3755,7 +3755,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-957621820626276353</t>
+          <t>t-1053005694822207488</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,11 +3768,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-958690487875055616</t>
+          <t>t-1053014697077817346</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3781,50 +3781,50 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-984477965856772096</t>
+          <t>t-1053091674438725632</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-984491425478971393</t>
+          <t>t-1053211878921568256</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-984517270725644288</t>
+          <t>t-1053220103070932992</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-985567499843489798</t>
+          <t>t-1053451825607774209</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
         <v>1</v>
@@ -3833,33 +3833,33 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-1049984041888505856</t>
+          <t>t-1053915265375834112</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-1051063984038776837</t>
+          <t>t-696805827110428676</t>
         </is>
       </c>
       <c r="B263" t="n">
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-1045126070540865541</t>
+          <t>t-772514094360305664</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,20 +3872,20 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-602992695011889152</t>
+          <t>t-561705902466957314</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-646786233809539072</t>
+          <t>t-655077150693990401</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,7 +3898,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-772514094360305664</t>
+          <t>t-702894496737071105</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,7 +3911,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-801380815166930945</t>
+          <t>t-769170271928483840</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,46 +3924,46 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-563347902408695811</t>
+          <t>t-1060159476664356864</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-581325099023892480</t>
+          <t>t-563347902408695811</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-581326319130116096</t>
+          <t>t-755764875155083264</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-581406863343779840</t>
+          <t>t-565107354606518272</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,11 +3976,11 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-581587820248109056</t>
+          <t>t-573292412430376960</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -3989,33 +3989,33 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-811342708061024256</t>
+          <t>t-736272987683426305</t>
         </is>
       </c>
       <c r="B274" t="n">
         <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-610512692353310721</t>
+          <t>t-1049061003617607680</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-610555659969409025</t>
+          <t>t-1049351090909667329</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,46 +4028,46 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-791567733695606784</t>
+          <t>t-1050209065153036288</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-565107354606518272</t>
+          <t>t-648439576441171968</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-632590097284734976</t>
+          <t>t-649621017187512320</t>
         </is>
       </c>
       <c r="B279" t="n">
         <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-899250634855251968</t>
+          <t>t-887375379186548736</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,11 +4080,11 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-571711350180868097</t>
+          <t>t-906773843066441728</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -4093,11 +4093,11 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-576618970368876544</t>
+          <t>t-906922961621454848</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-645024639639535616</t>
+          <t>t-906981528483364865</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,33 +4119,33 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-651859489713291264</t>
+          <t>t-906982446905876480</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-652540388272553984</t>
+          <t>t-995839519449640960</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-652542102539235329</t>
+          <t>t-572732322178572288</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,11 +4158,11 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-729341140499976193</t>
+          <t>t-572748274618277888</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -4171,7 +4171,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-729421969410564096</t>
+          <t>t-572762505111580673</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,11 +4184,11 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-729436964269658112</t>
+          <t>t-573486943880638464</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -4197,11 +4197,11 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-729446762138591232</t>
+          <t>t-573279947445420034</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -4210,59 +4210,59 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-729454167735959552</t>
+          <t>t-884636889948471296</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-729749802209054720</t>
+          <t>t-580101390820876288</t>
         </is>
       </c>
       <c r="B292" t="n">
         <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-860196024056414208</t>
+          <t>t-580474226571915265</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-884636889948471296</t>
+          <t>t-581395014502191104</t>
         </is>
       </c>
       <c r="B294" t="n">
         <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-1027967787312939008</t>
+          <t>t-822759706078969856</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,24 +4275,24 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-1047526401644138497</t>
+          <t>t-822817083591446532</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-874804635327905792</t>
+          <t>t-837738761547091968</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -4301,11 +4301,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-579030352271917056</t>
+          <t>t-640921153591050240</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -4314,59 +4314,59 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-579089809991331841</t>
+          <t>t-724222646435508224</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-766980130283610112</t>
+          <t>t-765721842803802112</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-992231007083421698</t>
+          <t>t-848618580681912320</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-992892560405250048</t>
+          <t>t-848657153367953411</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-1038395251214495744</t>
+          <t>t-848877245439594496</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,59 +4379,59 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-1038467054960095234</t>
+          <t>t-851578277311373312</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-1038555106885681153</t>
+          <t>t-872233585960337408</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-1047259835777990656</t>
+          <t>t-622598644009668608</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-1049670308142206978</t>
+          <t>t-634366408906768384</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-880261784304631810</t>
+          <t>t-735633517237919744</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,11 +4444,11 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-1049990926406492160</t>
+          <t>t-771587937746071552</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -4457,33 +4457,33 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-634366408906768384</t>
+          <t>t-643571264011898881</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-735633517237919744</t>
+          <t>t-719978473687633922</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-1039755728448352257</t>
+          <t>t-646419866795118592</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,7 +4496,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-1039888860501688320</t>
+          <t>t-765678719205724160</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,7 +4509,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-1055172080499515392</t>
+          <t>t-983744396364480512</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4522,7 +4522,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-1055204302220943368</t>
+          <t>t-653702331221999616</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,46 +4535,46 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-676228752599314434</t>
+          <t>t-660109346915770368</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-676234421217845248</t>
+          <t>t-660117216885477376</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-676358315065016322</t>
+          <t>t-660467638917660672</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-762366384747589634</t>
+          <t>t-661127792231321600</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,33 +4587,33 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-762414153185173504</t>
+          <t>t-753352623630278664</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-762454271832928257</t>
+          <t>t-762742863394254850</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-661127792231321600</t>
+          <t>t-922944953696899072</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,7 +4626,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-803234433000148994</t>
+          <t>t-922950403255341056</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,7 +4639,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-803236909183107073</t>
+          <t>t-922959565792083968</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,20 +4652,20 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-803260822801649664</t>
+          <t>t-976481160363692032</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-803260889940062209</t>
+          <t>t-692348550416633857</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,11 +4678,11 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-803271446357282816</t>
+          <t>t-715468390047961088</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -4691,20 +4691,20 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-715587588204015616</t>
+          <t>t-931989476401926144</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-803284826191171584</t>
+          <t>t-939871571342249985</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,37 +4717,37 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-685125009120038913</t>
+          <t>t-1044155993779851264</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-736405703838044160</t>
+          <t>t-1009997647032344576</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-720246081364365312</t>
+          <t>t-880159202567753728</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-720295493985677312</t>
+          <t>t-971386931857772544</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,7 +4769,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-939871571342249985</t>
+          <t>t-996559091932770305</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,7 +4782,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-725450676986335232</t>
+          <t>t-913112779548176384</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,20 +4795,20 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-725708603060031489</t>
+          <t>t-895778141523894272</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-733752725972746240</t>
+          <t>t-768829814824247296</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,7 +4821,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-733764949433012224</t>
+          <t>t-768861970195881986</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,7 +4834,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-749466819581411328</t>
+          <t>t-768886684955975680</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-1009997647032344576</t>
+          <t>t-769194684576960513</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,7 +4860,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-1021764160093401089</t>
+          <t>t-783618446827356161</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,7 +4873,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-1022188431483387905</t>
+          <t>t-784456852864065536</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,33 +4886,33 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-1022188766964998144</t>
+          <t>t-796435007673946112</t>
         </is>
       </c>
       <c r="B343" t="n">
         <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-1022577266117824514</t>
+          <t>t-796529318373584896</t>
         </is>
       </c>
       <c r="B344" t="n">
         <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-1023560708376748032</t>
+          <t>t-796701113995104256</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,7 +4925,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-1023767948165562368</t>
+          <t>t-796745584795389952</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,11 +4938,11 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-1023931290045829121</t>
+          <t>t-848851618011525120</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -4951,98 +4951,98 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-1024052229152669696</t>
+          <t>t-861539001962041345</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-756636337130774528</t>
+          <t>t-850386711385260034</t>
         </is>
       </c>
       <c r="B349" t="n">
         <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-904025443510214656</t>
+          <t>t-880054371417018369</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-904025763938217984</t>
+          <t>t-881979226697740288</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-904026823356506112</t>
+          <t>t-1026649986782650369</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-965898424523591681</t>
+          <t>t-905261367573090305</t>
         </is>
       </c>
       <c r="B353" t="n">
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-779066799077851136</t>
+          <t>t-913513656511614977</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-783618446827356161</t>
+          <t>t-999404160775872512</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,11 +5055,11 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-784456852864065536</t>
+          <t>t-881960500829016064</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356" t="n">
         <v>1</v>
@@ -5068,20 +5068,20 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-996488939933401088</t>
+          <t>t-824672856466423809</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-803919035318628352</t>
+          <t>t-1006187748338864128</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-804312701002457088</t>
+          <t>t-1006198330727247872</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,89 +5107,89 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-814469186323939328</t>
+          <t>t-1006207380676280320</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-852608222380924929</t>
+          <t>t-1006582449827209216</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-852804949515698178</t>
+          <t>t-517992573227778048</t>
         </is>
       </c>
       <c r="B362" t="n">
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-861539001962041345</t>
+          <t>t-519900708980948992</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-877327075954245633</t>
+          <t>t-676836902981513216</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-880054371417018369</t>
+          <t>t-782797044729741312</t>
         </is>
       </c>
       <c r="B365" t="n">
         <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-882704580865404928</t>
+          <t>t-1001002093895921665</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -5198,7 +5198,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-1026649986782650369</t>
+          <t>t-1057306605287550976</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,7 +5211,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-1034597062573211651</t>
+          <t>t-1057548272053698560</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,7 +5224,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-1036704309923246081</t>
+          <t>t-931216910477414400</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,11 +5237,11 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1045400324041846785</t>
+          <t>t-644488507239628800</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -5250,11 +5250,11 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-1042831980822454273</t>
+          <t>t-644488513442983937</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -5263,24 +5263,24 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-1042864703981084672</t>
+          <t>t-957342329127473158</t>
         </is>
       </c>
       <c r="B372" t="n">
         <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-1042868533963776005</t>
+          <t>t-530728667891380225</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -5289,11 +5289,11 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-1043255346553389058</t>
+          <t>t-676099835372654592</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -5302,20 +5302,20 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-588767869539733506</t>
+          <t>t-1027585082050207745</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-673357306764140544</t>
+          <t>t-576412478135005185</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -5328,46 +5328,46 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-859937675339497473</t>
+          <t>t-629222720161640449</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-927695512287043584</t>
+          <t>t-677902230650003457</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-952288702339997696</t>
+          <t>t-734290700469166080</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-952549733930885120</t>
+          <t>t-737049601983840256</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,20 +5380,20 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-952956945098473472</t>
+          <t>t-737149037674147840</t>
         </is>
       </c>
       <c r="B381" t="n">
         <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-970747848747778048</t>
+          <t>t-737191991822409729</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,37 +5406,37 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-1022200671666401281</t>
+          <t>t-737354227509518336</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-1027253242261069824</t>
+          <t>t-737535367486676992</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-521063203389050882</t>
+          <t>t-737536409473421313</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -5445,7 +5445,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-521358835361927168</t>
+          <t>t-737576761286787074</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,11 +5458,11 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-538351189679939584</t>
+          <t>t-737578269373960195</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C387" t="n">
         <v>1</v>
@@ -5471,11 +5471,11 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-642734533335453700</t>
+          <t>t-737714265268834304</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -5484,59 +5484,59 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-773146400129441792</t>
+          <t>t-737924468329328640</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-804010972331524096</t>
+          <t>t-737947084494622720</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-953177789628407808</t>
+          <t>t-738026122630332416</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-953520796361744384</t>
+          <t>t-738039322344075265</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-519900708980948992</t>
+          <t>t-738045153693335552</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,46 +5549,46 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-750337554457694208</t>
+          <t>t-738399731303514112</t>
         </is>
       </c>
       <c r="B394" t="n">
         <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-869830075268685825</t>
+          <t>t-738417134443859970</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-674956056209063937</t>
+          <t>t-738432094909698048</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-1001002093895921665</t>
+          <t>t-738465959694860289</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,20 +5601,20 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-699600707318587392</t>
+          <t>t-738495271307513856</t>
         </is>
       </c>
       <c r="B398" t="n">
         <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-957342329127473158</t>
+          <t>t-738626782371426304</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,24 +5627,24 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-676099835372654592</t>
+          <t>t-738645010103603200</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-875802481292439553</t>
+          <t>t-738707246943719426</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -5653,11 +5653,11 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-957544710825967616</t>
+          <t>t-738992446231719937</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -5666,11 +5666,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-960182659325493248</t>
+          <t>t-739020531689721856</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
         <v>1</v>
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-538736663154135040</t>
+          <t>t-739105047078948864</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,24 +5692,24 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-603463396365836289</t>
+          <t>t-739154724495228928</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-734290700469166080</t>
+          <t>t-739161314166214656</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -5718,111 +5718,111 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-737049601983840256</t>
+          <t>t-739753236761055232</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-737149037674147840</t>
+          <t>t-739763139001094144</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-737191991822409729</t>
+          <t>t-739766081125011456</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-737354227509518336</t>
+          <t>t-739840205935546368</t>
         </is>
       </c>
       <c r="B410" t="n">
         <v>1</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-737535367486676992</t>
+          <t>t-739892598974861314</t>
         </is>
       </c>
       <c r="B411" t="n">
         <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-737536409473421313</t>
+          <t>t-740068412177715200</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-737576761286787074</t>
+          <t>t-740070843053662208</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-737578269373960195</t>
+          <t>t-740092206627880960</t>
         </is>
       </c>
       <c r="B414" t="n">
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-737714265268834304</t>
+          <t>t-740465124390080515</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,7 +5835,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-737924468329328640</t>
+          <t>t-740535202582253568</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,11 +5848,11 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-737947084494622720</t>
+          <t>t-740538191267106816</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5861,11 +5861,11 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-738026122630332416</t>
+          <t>t-741179165198536704</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -5874,11 +5874,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-738039322344075265</t>
+          <t>t-762281733672820736</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5887,20 +5887,20 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-738045153693335552</t>
+          <t>t-787588682731626496</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-738399731303514112</t>
+          <t>t-933614181286318081</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,11 +5913,11 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-738417134443859970</t>
+          <t>t-933625586442035205</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5926,11 +5926,11 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-738432094909698048</t>
+          <t>t-974595772317659137</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5939,46 +5939,46 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-738465959694860289</t>
+          <t>t-1001548678748954624</t>
         </is>
       </c>
       <c r="B424" t="n">
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-738495271307513856</t>
+          <t>t-1001557802375110657</t>
         </is>
       </c>
       <c r="B425" t="n">
         <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-738626782371426304</t>
+          <t>t-1006399568249008128</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-738645010103603200</t>
+          <t>t-1006422910762995712</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,7 +5991,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-738707246943719426</t>
+          <t>t-1006422931839299584</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,11 +6004,11 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-738992446231719937</t>
+          <t>t-1006427045709180929</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -6017,11 +6017,11 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-739020531689721856</t>
+          <t>t-1006463635693203456</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -6030,7 +6030,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-739105047078948864</t>
+          <t>t-1008363588552151040</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,7 +6043,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-739154724495228928</t>
+          <t>t-652506002957422592</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6056,20 +6056,20 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-739161314166214656</t>
+          <t>t-816609916018454528</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-739753236761055232</t>
+          <t>t-629936150220685312</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6082,11 +6082,11 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-739763139001094144</t>
+          <t>t-712150675111727105</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -6095,7 +6095,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-739766081125011456</t>
+          <t>t-831105804946247681</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,20 +6108,20 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-739840205935546368</t>
+          <t>t-888058781363580930</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-739892598974861314</t>
+          <t>t-917052938425716736</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,11 +6134,11 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-740068412177715200</t>
+          <t>t-917054284579078144</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -6147,11 +6147,11 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-740070843053662208</t>
+          <t>t-917061971631108097</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -6160,11 +6160,11 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-740092206627880960</t>
+          <t>t-917080429227778048</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -6173,7 +6173,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-740465124390080515</t>
+          <t>t-917105709682216960</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,7 +6186,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-740535202582253568</t>
+          <t>t-972395558735368192</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,7 +6199,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-740538191267106816</t>
+          <t>t-1057351782484115458</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -6212,7 +6212,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-741179165198536704</t>
+          <t>t-837620098416459776</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,7 +6225,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-770572723777105920</t>
+          <t>t-987343892633747456</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,33 +6238,33 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-962342450219094016</t>
+          <t>t-1050114319227195392</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-962358038081523713</t>
+          <t>t-697699936171909120</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-962393573927870466</t>
+          <t>t-697706009293410304</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,11 +6277,11 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-977899948724379649</t>
+          <t>t-698055021934571520</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-1008363588552151040</t>
+          <t>t-698056879210102784</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,7 +6303,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-1057165607152562176</t>
+          <t>t-698065167305805824</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,85 +6316,85 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-542716499115642881</t>
+          <t>t-698086763601006593</t>
         </is>
       </c>
       <c r="B453" t="n">
         <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-649269312625209344</t>
+          <t>t-698453860554244096</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-712209810511564800</t>
+          <t>t-1000392026742034432</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-1014607937048850434</t>
+          <t>t-1000411846237675521</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-652334979544948736</t>
+          <t>t-1000414273863069696</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-712150675111727105</t>
+          <t>t-1000416714763505664</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-818362228881719296</t>
+          <t>t-570990543225950209</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,20 +6407,20 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-818369931054030848</t>
+          <t>t-756468934379966464</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-818390305326137344</t>
+          <t>t-660085012306395136</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-818474161949601796</t>
+          <t>t-764514429736132609</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,7 +6446,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-818513625468010496</t>
+          <t>t-764618483195838464</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,7 +6459,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-818701658280628224</t>
+          <t>t-850396935152422913</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,7 +6472,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-818709014498443264</t>
+          <t>t-859839256700882944</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -6485,20 +6485,20 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-819113813505146880</t>
+          <t>t-860843222091935744</t>
         </is>
       </c>
       <c r="B466" t="n">
         <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-917052938425716736</t>
+          <t>t-861496628741640192</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,24 +6511,24 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-917054284579078144</t>
+          <t>t-862635910306856964</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-917061971631108097</t>
+          <t>t-862992827487309824</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -6537,46 +6537,46 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-917080429227778048</t>
+          <t>t-863003997464080384</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-917105709682216960</t>
+          <t>t-863121747360571392</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-996477889779511296</t>
+          <t>t-918068732882313216</t>
         </is>
       </c>
       <c r="B472" t="n">
         <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-837620098416459776</t>
+          <t>t-988840187785568257</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,24 +6589,24 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-1034815239219539970</t>
+          <t>t-1027292918111825921</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-567369806647951362</t>
+          <t>t-962759977394991104</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
         <v>0</v>
@@ -6615,50 +6615,50 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-567639888489500672</t>
+          <t>t-590431507967299584</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-577532478912663552</t>
+          <t>t-591541513768673280</t>
         </is>
       </c>
       <c r="B477" t="n">
         <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-778479315071664128</t>
+          <t>t-737572670372339712</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-861227956118716416</t>
+          <t>t-741661270017970176</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -6667,7 +6667,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-1006487935733174274</t>
+          <t>t-717265029461049349</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,7 +6680,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-764514429736132609</t>
+          <t>t-728815708801531904</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,24 +6693,24 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-764618483195838464</t>
+          <t>t-728860742099849216</t>
         </is>
       </c>
       <c r="B482" t="n">
         <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-918068732882313216</t>
+          <t>t-877183876254269441</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -6719,11 +6719,11 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-1003856366128259073</t>
+          <t>t-877213422538158080</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C484" t="n">
         <v>0</v>
@@ -6732,7 +6732,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-712917955391172609</t>
+          <t>t-955539710214057984</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,11 +6745,11 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-737201412497649664</t>
+          <t>t-955816204769390593</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
         <v>1</v>
@@ -6758,20 +6758,20 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-737877218718797825</t>
+          <t>t-800696529770151938</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-738015379373625344</t>
+          <t>t-608689054549471232</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,7 +6784,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-738097397058932736</t>
+          <t>t-612221773757681664</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,7 +6797,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-738253541266075652</t>
+          <t>t-867803560930627585</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,33 +6810,33 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-738419452778274816</t>
+          <t>t-868025997010055168</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-738714074352123904</t>
+          <t>t-868097086021095425</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-737572670372339712</t>
+          <t>t-869075299467763714</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,7 +6849,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-743692015158726656</t>
+          <t>t-994824289349242881</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,7 +6862,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-743726128003588096</t>
+          <t>t-994897053523341314</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,7 +6875,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-592904512131768321</t>
+          <t>t-995019257841889281</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -6888,20 +6888,20 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-717265029461049349</t>
+          <t>t-995256568429064192</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-877183876254269441</t>
+          <t>t-1008938317684060160</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,37 +6914,37 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-877213422538158080</t>
+          <t>t-1008975928465248256</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>1</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-1024752032350195712</t>
+          <t>t-1008978373484400640</t>
         </is>
       </c>
       <c r="B500" t="n">
         <v>0</v>
       </c>
       <c r="C500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-949260261575229441</t>
+          <t>t-1008995195113918464</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501" t="n">
         <v>1</v>
@@ -6953,7 +6953,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-955871714914766849</t>
+          <t>t-1009346793090506752</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6966,37 +6966,37 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-608880570362437632</t>
+          <t>t-1009539540728639490</t>
         </is>
       </c>
       <c r="B503" t="n">
         <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-609461898141147136</t>
+          <t>t-1010058406223400966</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-613277694457856004</t>
+          <t>t-1011026406564823042</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C505" t="n">
         <v>1</v>
@@ -7005,59 +7005,59 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-873880943819460609</t>
+          <t>t-633506882188021761</t>
         </is>
       </c>
       <c r="B506" t="n">
         <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-874034580747104259</t>
+          <t>t-900842879182131201</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-874852269765931008</t>
+          <t>t-1013800752567996416</t>
         </is>
       </c>
       <c r="B508" t="n">
         <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-916986223478140928</t>
+          <t>t-636903909362167808</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-1019348620489969664</t>
+          <t>t-925429606693457921</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,72 +7070,72 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-615666964451606528</t>
+          <t>t-663799425475731457</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-615728570888003584</t>
+          <t>t-908615579501780992</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-997420355043102720</t>
+          <t>t-910016271554576384</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-623896530324467712</t>
+          <t>t-859792354395533312</t>
         </is>
       </c>
       <c r="B514" t="n">
         <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-849766480828878849</t>
+          <t>t-860626885302202369</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-1013800752567996416</t>
+          <t>t-861365904025714688</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,7 +7148,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-639695836943884288</t>
+          <t>t-861657024731467783</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,7 +7161,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-1006630570447777793</t>
+          <t>t-861897864632578048</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,33 +7174,33 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-650407824212660224</t>
+          <t>t-862094425949917185</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-650415832523255809</t>
+          <t>t-862663540179701760</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-650581180757073921</t>
+          <t>t-1005827335977885696</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -7213,20 +7213,20 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-650584856162926592</t>
+          <t>t-681422251338674177</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-650605489492000769</t>
+          <t>t-685089211784019968</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -7239,76 +7239,76 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-652058053697765376</t>
+          <t>t-692403922451992576</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-653076415596888064</t>
+          <t>t-952055483354972160</t>
         </is>
       </c>
       <c r="B525" t="n">
         <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-663799425475731457</t>
+          <t>t-781871738888065024</t>
         </is>
       </c>
       <c r="B526" t="n">
         <v>0</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-908615579501780992</t>
+          <t>t-730493187534413824</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-669879511748579329</t>
+          <t>t-730679314916757504</t>
         </is>
       </c>
       <c r="B528" t="n">
         <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-670195512713330689</t>
+          <t>t-736808558038265858</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C529" t="n">
         <v>1</v>
@@ -7317,37 +7317,37 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-698444957653278721</t>
+          <t>t-956932857389309953</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-781871738888065024</t>
+          <t>t-957576777848717312</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-715965241637470208</t>
+          <t>t-979633616404844544</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C532" t="n">
         <v>1</v>
@@ -7356,37 +7356,37 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-730493187534413824</t>
+          <t>t-953202460994232320</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-730679314916757504</t>
+          <t>t-953212881809518592</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-956932857389309953</t>
+          <t>t-949613613874077704</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
         <v>0</v>
@@ -7395,59 +7395,59 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-957576777848717312</t>
+          <t>t-957301618868965376</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-737207145662435328</t>
+          <t>t-956210090935312384</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-737378615814393856</t>
+          <t>t-956914853922459649</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-737618316705964032</t>
+          <t>t-957307123943256064</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-737643792757587968</t>
+          <t>t-956876178509516800</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,7 +7460,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-737668431374389250</t>
+          <t>t-738762935133188098</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,7 +7473,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-737882738997530625</t>
+          <t>t-739230360207261700</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,7 +7486,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-738072611704430592</t>
+          <t>t-740264154712449024</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,7 +7499,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-738383058857021440</t>
+          <t>t-897405884489506816</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,11 +7512,11 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-741709377703411712</t>
+          <t>t-902928093131808770</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
         <v>1</v>
@@ -7525,20 +7525,20 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-737558350011867138</t>
+          <t>t-1002274254954647552</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-738417908926320643</t>
+          <t>t-1002283218085863430</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,50 +7551,50 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-738664460173381632</t>
+          <t>t-740256345773985793</t>
         </is>
       </c>
       <c r="B548" t="n">
         <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-949613613874077704</t>
+          <t>t-824202245172592640</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-963803678573547520</t>
+          <t>t-748138953241464832</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-890865444307042304</t>
+          <t>t-753159226390962176</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C551" t="n">
         <v>0</v>
@@ -7603,11 +7603,11 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-957301618868965376</t>
+          <t>t-952704809529851906</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C552" t="n">
         <v>0</v>
@@ -7616,11 +7616,11 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-955134939699310592</t>
+          <t>t-760154379307458560</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C553" t="n">
         <v>0</v>
@@ -7629,63 +7629,63 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-1006483455209766912</t>
+          <t>t-775632377695600641</t>
         </is>
       </c>
       <c r="B554" t="n">
         <v>0</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-1006781895278055424</t>
+          <t>t-852631745438601216</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-1006804114234322945</t>
+          <t>t-989189175357276160</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-737976116753883136</t>
+          <t>t-862454112507580416</t>
         </is>
       </c>
       <c r="B557" t="n">
         <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-738434736910176256</t>
+          <t>t-1019231079817973760</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C558" t="n">
         <v>0</v>
@@ -7694,46 +7694,46 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-884308996835991554</t>
+          <t>t-906119454941171712</t>
         </is>
       </c>
       <c r="B559" t="n">
         <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-897405884489506816</t>
+          <t>t-940225923332403204</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-902928093131808770</t>
+          <t>t-940273268677849088</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-860462128263811072</t>
+          <t>t-988323500330045442</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,11 +7746,11 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-746386418465914880</t>
+          <t>t-988749833476325376</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C563" t="n">
         <v>1</v>
@@ -7759,7 +7759,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-906552804285861889</t>
+          <t>t-1004723222363955200</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,7 +7772,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-834086991646048256</t>
+          <t>t-1017566472292495360</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,7 +7785,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-834349788053266432</t>
+          <t>t-1030184521969410055</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -7798,7 +7798,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-834314501134614528</t>
+          <t>t-1043100641466490881</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,7 +7811,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-834805481759789056</t>
+          <t>t-1043534562775781377</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,7 +7824,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-844564313012670464</t>
+          <t>t-1051774073523634182</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,7 +7837,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-851409413646802945</t>
+          <t>t-1052071039923044352</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,24 +7850,24 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-990385513898094592</t>
+          <t>t-1052145118726238209</t>
         </is>
       </c>
       <c r="B571" t="n">
         <v>1</v>
       </c>
       <c r="C571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-855547644516732928</t>
+          <t>t-1052182549513035776</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C572" t="n">
         <v>1</v>
@@ -7876,37 +7876,37 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-855563578274754560</t>
+          <t>t-950875222734929921</t>
         </is>
       </c>
       <c r="B573" t="n">
         <v>1</v>
       </c>
       <c r="C573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-861335479475634176</t>
+          <t>t-950925554487738369</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-862454112507580416</t>
+          <t>t-565143761131671552</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
         <v>0</v>
@@ -7915,20 +7915,20 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-886643817893560320</t>
+          <t>t-675498810152325120</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-887813365304705024</t>
+          <t>t-498746062224375809</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,7 +7941,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-1038090181595877376</t>
+          <t>t-499104320717996032</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -7954,11 +7954,11 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-949999091047477249</t>
+          <t>t-549142719973445632</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C579" t="n">
         <v>1</v>
@@ -7967,20 +7967,20 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-988749833476325376</t>
+          <t>t-549750044099088384</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-565143761131671552</t>
+          <t>t-549858427787153410</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,7 +7993,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-666296658595069952</t>
+          <t>t-549861279825817601</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,7 +8006,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-666325159947563008</t>
+          <t>t-550997963590610944</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,20 +8019,20 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-845604671851057152</t>
+          <t>t-551059868657152002</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-898971629665099776</t>
+          <t>t-551164779646038017</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,33 +8045,33 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-956368490293800960</t>
+          <t>t-552328482282553344</t>
         </is>
       </c>
       <c r="B586" t="n">
         <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-956387965382610945</t>
+          <t>t-552381413899898881</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-500549350234554368</t>
+          <t>t-552754433155928064</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,11 +8084,11 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-512537797442273280</t>
+          <t>t-552860760968138752</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C589" t="n">
         <v>1</v>
@@ -8097,59 +8097,59 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-557932086149918722</t>
+          <t>t-552960294360977408</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-558466774392266752</t>
+          <t>t-553046169975148544</t>
         </is>
       </c>
       <c r="B591" t="n">
         <v>0</v>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-558501767688642560</t>
+          <t>t-553111267569713154</t>
         </is>
       </c>
       <c r="B592" t="n">
         <v>0</v>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-558892309320724482</t>
+          <t>t-553535305601392640</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-559263075183104000</t>
+          <t>t-616630261191716864</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,50 +8162,50 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-559573400780156928</t>
+          <t>t-643644357350948864</t>
         </is>
       </c>
       <c r="B595" t="n">
         <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-616630261191716864</t>
+          <t>t-645961089671405568</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-627052129107087360</t>
+          <t>t-697436431816355840</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-627062516095455232</t>
+          <t>t-697627864380809216</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C598" t="n">
         <v>1</v>
@@ -8214,11 +8214,11 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-627070573118488576</t>
+          <t>t-698371050527023104</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C599" t="n">
         <v>1</v>
@@ -8227,20 +8227,20 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-627075912631083008</t>
+          <t>t-698770244375093249</t>
         </is>
       </c>
       <c r="B600" t="n">
         <v>1</v>
       </c>
       <c r="C600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-627076573653561344</t>
+          <t>t-852554541803417600</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,24 +8253,24 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-658803849289990144</t>
+          <t>t-879622376966635521</t>
         </is>
       </c>
       <c r="B602" t="n">
         <v>1</v>
       </c>
       <c r="C602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-659014102774325248</t>
+          <t>t-879625739317854209</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C603" t="n">
         <v>1</v>
@@ -8279,33 +8279,33 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-676377478168862721</t>
+          <t>t-879987948296568834</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-677293991713308673</t>
+          <t>t-921445800072298496</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-678077110070566912</t>
+          <t>t-922085813818658816</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,20 +8318,20 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-686071224749821953</t>
+          <t>t-935721877053505536</t>
         </is>
       </c>
       <c r="B607" t="n">
         <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-755613145079484416</t>
+          <t>t-509160710316650496</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,11 +8344,11 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-788186519307563010</t>
+          <t>t-509293535221145601</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C609" t="n">
         <v>1</v>
@@ -8357,7 +8357,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-815395045314560000</t>
+          <t>t-511340405753786369</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-815855888129028096</t>
+          <t>t-706517570451427328</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-815865821570289668</t>
+          <t>t-728392912636149760</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,11 +8396,11 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-815882427159678976</t>
+          <t>t-762938358486052865</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C613" t="n">
         <v>1</v>
@@ -8409,24 +8409,24 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-815960345336545280</t>
+          <t>t-772650812623290373</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-816280699388841984</t>
+          <t>t-772781827224285184</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C615" t="n">
         <v>0</v>
@@ -8435,20 +8435,20 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-852554541803417600</t>
+          <t>t-773074057805737984</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-879622376966635521</t>
+          <t>t-806390063244410880</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-879625739317854209</t>
+          <t>t-806499176066453505</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-879987948296568834</t>
+          <t>t-527780384159703040</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-890567544695906304</t>
+          <t>t-659219094017708032</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,46 +8500,46 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-925890248541794304</t>
+          <t>t-662632429539057666</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-1031392016255647744</t>
+          <t>t-662681193154920448</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-511340405753786369</t>
+          <t>t-663567974029131776</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-706517570451427328</t>
+          <t>t-674612681832140800</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,11 +8552,11 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-718742884065759233</t>
+          <t>t-708275780988473345</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C625" t="n">
         <v>1</v>
@@ -8565,11 +8565,11 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-762938358486052865</t>
+          <t>t-709001129091174403</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C626" t="n">
         <v>1</v>
@@ -8578,11 +8578,11 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-782517721938300928</t>
+          <t>t-709281433978687488</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C627" t="n">
         <v>1</v>
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-832449416082579456</t>
+          <t>t-807384780572459008</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-838217823608438784</t>
+          <t>t-838333127739260928</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,33 +8617,33 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-871870603011043328</t>
+          <t>t-838721199874048000</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-872126007855038464</t>
+          <t>t-529909835525939202</t>
         </is>
       </c>
       <c r="B631" t="n">
         <v>0</v>
       </c>
       <c r="C631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-976046458834116609</t>
+          <t>t-563978477183840256</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,20 +8656,20 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-1015491573092528128</t>
+          <t>t-706405441522143232</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-519137345065320448</t>
+          <t>t-535750936824528896</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-581777426016956417</t>
+          <t>t-535750956848140288</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-585340196557692928</t>
+          <t>t-535751324143341568</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,11 +8708,11 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-666604346558271489</t>
+          <t>t-535754365856776193</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C637" t="n">
         <v>1</v>
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-667233953934282752</t>
+          <t>t-535786478451048448</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-769774311968079872</t>
+          <t>t-546954418067738625</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-870517868831449088</t>
+          <t>t-547052080943214593</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,33 +8760,33 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-922601399271112704</t>
+          <t>t-547052404026249217</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-928491239808233473</t>
+          <t>t-547288951820521472</t>
         </is>
       </c>
       <c r="B642" t="n">
         <v>1</v>
       </c>
       <c r="C642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-928882270554877953</t>
+          <t>t-547333815882887168</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-928900503953588224</t>
+          <t>t-547368132457689088</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-928967839649804289</t>
+          <t>t-547431547935412224</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-929323628226686976</t>
+          <t>t-547610562692009985</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,33 +8838,33 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-987647411144220672</t>
+          <t>t-547694551637700608</t>
         </is>
       </c>
       <c r="B647" t="n">
         <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-1036192189947281408</t>
+          <t>t-550981789649735680</t>
         </is>
       </c>
       <c r="B648" t="n">
         <v>0</v>
       </c>
       <c r="C648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-529909835525939202</t>
+          <t>t-664725934935707650</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,11 +8877,11 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-586217765666623488</t>
+          <t>t-678547534269177856</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C650" t="n">
         <v>1</v>
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-706405441522143232</t>
+          <t>t-712147646559879168</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-621352736672473089</t>
+          <t>t-788398448508739585</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-621526313216536576</t>
+          <t>t-788457694453637120</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-621967424384925696</t>
+          <t>t-846329507103436800</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,20 +8942,20 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-676067082081976320</t>
+          <t>t-936830929384828928</t>
         </is>
       </c>
       <c r="B655" t="n">
         <v>1</v>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-678547534269177856</t>
+          <t>t-936988511051292672</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-712147646559879168</t>
+          <t>t-989542585978052610</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,11 +8981,11 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-795674749028462592</t>
+          <t>t-1028122158990381056</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C658" t="n">
         <v>1</v>
@@ -8994,24 +8994,24 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-801312317355003904</t>
+          <t>t-521700184376770560</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-802829831633108992</t>
+          <t>t-696949735576489985</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C660" t="n">
         <v>1</v>
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-822370054381522945</t>
+          <t>t-697001638108598272</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,33 +9033,33 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-1000752833484881921</t>
+          <t>t-757366725759242240</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-1001352081465212928</t>
+          <t>t-757494302339571712</t>
         </is>
       </c>
       <c r="B663" t="n">
         <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-1032843605826621440</t>
+          <t>t-757771911346749441</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,20 +9072,20 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-716900054133399553</t>
+          <t>t-757882635976790016</t>
         </is>
       </c>
       <c r="B665" t="n">
         <v>1</v>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-740483903366926337</t>
+          <t>t-758521629890650113</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,11 +9098,11 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-836878014587744257</t>
+          <t>t-971295308981383168</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C667" t="n">
         <v>1</v>
@@ -9111,11 +9111,11 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-919610638351003649</t>
+          <t>t-527311291191263232</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C668" t="n">
         <v>1</v>
@@ -9124,20 +9124,20 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-919611818183503872</t>
+          <t>t-744191847128436736</t>
         </is>
       </c>
       <c r="B669" t="n">
         <v>1</v>
       </c>
       <c r="C669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-919614704967757825</t>
+          <t>t-777029515289563136</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,20 +9150,20 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-919712337681985537</t>
+          <t>t-777052253362335745</t>
         </is>
       </c>
       <c r="B671" t="n">
         <v>1</v>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-919728404907167744</t>
+          <t>t-801391859083988993</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,11 +9176,11 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-919751765871886336</t>
+          <t>t-829520315575177217</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -9189,20 +9189,20 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-919766847666274304</t>
+          <t>t-832183739346063361</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-919943414766063617</t>
+          <t>t-919610638351003649</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-920179252292739072</t>
+          <t>t-919611818183503872</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-920416544319926272</t>
+          <t>t-919614704967757825</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,33 +9241,33 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-983954928610697216</t>
+          <t>t-919712337681985537</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-532101195737735168</t>
+          <t>t-919728404907167744</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-532807839664730113</t>
+          <t>t-919751765871886336</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,11 +9280,11 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-666809196977909760</t>
+          <t>t-919766847666274304</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C681" t="n">
         <v>0</v>
@@ -9293,11 +9293,11 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-685036854010339328</t>
+          <t>t-919943414766063617</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C682" t="n">
         <v>1</v>
@@ -9306,20 +9306,20 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-697703131493355520</t>
+          <t>t-920179252292739072</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-698358832959873025</t>
+          <t>t-920416544319926272</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-833843048253681665</t>
+          <t>t-969977636670918656</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,24 +9345,24 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-834648744150892546</t>
+          <t>t-666809196977909760</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-544711019629907968</t>
+          <t>t-673010347008110593</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C687" t="n">
         <v>1</v>
@@ -9371,11 +9371,11 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-544769671799394304</t>
+          <t>t-557096941750743040</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -9384,20 +9384,20 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-544813894037147648</t>
+          <t>t-681630649879543808</t>
         </is>
       </c>
       <c r="B689" t="n">
         <v>1</v>
       </c>
       <c r="C689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-545169541052243968</t>
+          <t>t-822808230711721984</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,20 +9410,20 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-734168300121395200</t>
+          <t>t-536910791295778816</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-536910791295778816</t>
+          <t>t-670770027604213760</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-670770027604213760</t>
+          <t>t-540747270207991808</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,20 +9449,20 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-558414856756293634</t>
+          <t>t-708854826730295296</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-558416982677422081</t>
+          <t>t-723151439586013184</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-779194196724887553</t>
+          <t>t-745418927845453825</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,11 +9488,11 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-987943018454962177</t>
+          <t>t-930711486019854336</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C697" t="n">
         <v>1</v>
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-607931728045338625</t>
+          <t>t-931775243361779712</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,24 +9514,24 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-692022677649797120</t>
+          <t>t-960667988255850496</t>
         </is>
       </c>
       <c r="B699" t="n">
         <v>1</v>
       </c>
       <c r="C699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-809685070428524546</t>
+          <t>t-547937617547771905</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C700" t="n">
         <v>1</v>
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-960667988255850496</t>
+          <t>t-597692277847298049</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,20 +9553,20 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-734985227739619329</t>
+          <t>t-814411097864159233</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-823731915236708352</t>
+          <t>t-814414402203983872</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-966644863226732544</t>
+          <t>t-814417111921479680</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,7 +9592,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-966649635170238465</t>
+          <t>t-814418757657296896</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,7 +9605,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-908138128514437120</t>
+          <t>t-814543705935736832</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,20 +9618,20 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-941661763132579840</t>
+          <t>t-579496758595584000</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-556107639625510912</t>
+          <t>t-780018288940158976</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,7 +9644,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-697434910303264773</t>
+          <t>t-781093621592383488</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,7 +9657,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-706439330877714432</t>
+          <t>t-946271534502395905</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,46 +9670,46 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-826783220507168768</t>
+          <t>t-741496457824374784</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-940363500475465728</t>
+          <t>t-761430337377349632</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-936534965277294597</t>
+          <t>t-932461262268661760</t>
         </is>
       </c>
       <c r="B713" t="n">
         <v>1</v>
       </c>
       <c r="C713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-936606274795462656</t>
+          <t>t-932590015711993858</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,11 +9722,11 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-563225583400648704</t>
+          <t>t-932596112241786880</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -9735,7 +9735,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-701328466483027968</t>
+          <t>t-932690981908074496</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,24 +9748,24 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-729180420265279489</t>
+          <t>t-932881287005835264</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-729281192772542465</t>
+          <t>t-978443713629204480</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C718" t="n">
         <v>0</v>
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-579242361768677376</t>
+          <t>t-978559522900910080</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-720546793344270336</t>
+          <t>t-998840776758120448</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,11 +9800,11 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-997052112126136320</t>
+          <t>t-566151747232489472</t>
         </is>
       </c>
       <c r="B721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C721" t="n">
         <v>1</v>
@@ -9813,11 +9813,11 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-572370799971053568</t>
+          <t>t-584288298249531392</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C722" t="n">
         <v>1</v>
@@ -9826,33 +9826,33 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-1016913242839367680</t>
+          <t>t-605944627380817920</t>
         </is>
       </c>
       <c r="B723" t="n">
         <v>0</v>
       </c>
       <c r="C723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-683203716623646720</t>
+          <t>t-642718104875732992</t>
         </is>
       </c>
       <c r="B724" t="n">
         <v>1</v>
       </c>
       <c r="C724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-796860246736052224</t>
+          <t>t-674136729771577344</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,11 +9865,11 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-820218394255339521</t>
+          <t>t-843318937064366080</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C726" t="n">
         <v>1</v>
@@ -9878,11 +9878,11 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-737450472194211841</t>
+          <t>t-765452831297970176</t>
         </is>
       </c>
       <c r="B727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C727" t="n">
         <v>1</v>
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-737498199435317252</t>
+          <t>t-883957999576002561</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,11 +9904,11 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-732116489394851840</t>
+          <t>t-590978217546092544</t>
         </is>
       </c>
       <c r="B729" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C729" t="n">
         <v>1</v>
@@ -9917,20 +9917,20 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-732306842290946048</t>
+          <t>t-732116489394851840</t>
         </is>
       </c>
       <c r="B730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-833912149630078976</t>
+          <t>t-732306842290946048</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,13 +9943,26 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
+          <t>t-733197295139741697</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
           <t>t-940573035752386560</t>
         </is>
       </c>
-      <c r="B732" t="n">
-        <v>1</v>
-      </c>
-      <c r="C732" t="n">
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
